--- a/log/clustering_log/AgglomerativeClustering/whole article/_sumary.xlsx
+++ b/log/clustering_log/AgglomerativeClustering/whole article/_sumary.xlsx
@@ -11,7 +11,7 @@
     <sheet name="single" sheetId="2" r:id="rId2"/>
     <sheet name="average" sheetId="3" r:id="rId3"/>
     <sheet name="complete" sheetId="4" r:id="rId4"/>
-    <sheet name="總比較" sheetId="5" r:id="rId5"/>
+    <sheet name="總比較" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -73,10 +73,10 @@
     <t>complete-0.9</t>
   </si>
   <si>
-    <t>single-0.8</t>
+    <t>single-0.75</t>
   </si>
   <si>
-    <t>test finished in 4235.16 seconds</t>
+    <t>test finished in 3444.92 seconds</t>
   </si>
 </sst>
 </file>
@@ -252,13 +252,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.39</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.81</c:v>
@@ -271,7 +271,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-555B-40AC-9DEB-9C84E979A296}"/>
+              <c16:uniqueId val="{00000000-0F77-48BC-AE60-C2895E18EA3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -329,26 +329,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.18</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-555B-40AC-9DEB-9C84E979A296}"/>
+              <c16:uniqueId val="{00000001-0F77-48BC-AE60-C2895E18EA3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -406,26 +406,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-555B-40AC-9DEB-9C84E979A296}"/>
+              <c16:uniqueId val="{00000002-0F77-48BC-AE60-C2895E18EA3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -438,7 +438,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>single-0.8</c:v>
+                  <c:v>single-0.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -483,26 +483,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.39</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-555B-40AC-9DEB-9C84E979A296}"/>
+              <c16:uniqueId val="{00000003-0F77-48BC-AE60-C2895E18EA3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -597,7 +597,7 @@
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-555B-40AC-9DEB-9C84E979A296}"/>
+                    <c16:uniqueId val="{00000004-0F77-48BC-AE60-C2895E18EA3F}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1349,7 +1349,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="2" name="圖表 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3710,7 +3710,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3742,13 +3742,13 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="C3">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D3">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="E3">
         <v>0.81</v>
@@ -3762,19 +3762,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="C4">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F4">
         <v>0.53</v>
-      </c>
-      <c r="E4">
-        <v>0.59</v>
-      </c>
-      <c r="F4">
-        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3782,19 +3782,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C5">
         <v>0.02</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E5">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F5">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3802,19 +3802,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="C6">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D6">
         <v>0.59</v>
       </c>
       <c r="E6">
-        <v>0.81</v>
+        <v>0.73</v>
       </c>
       <c r="F6">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3830,7 +3830,7 @@
         <v>0.42</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D8">
         <v>0.62</v>
@@ -3839,7 +3839,7 @@
         <v>0.84</v>
       </c>
       <c r="F8">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3847,19 +3847,19 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="C9">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="D9">
+        <v>0.51</v>
+      </c>
+      <c r="E9">
+        <v>0.61</v>
+      </c>
+      <c r="F9">
         <v>0.55000000000000004</v>
-      </c>
-      <c r="E9">
-        <v>0.62</v>
-      </c>
-      <c r="F9">
-        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3873,13 +3873,13 @@
         <v>0.02</v>
       </c>
       <c r="D10">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3887,19 +3887,19 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="C11">
-        <v>0.28999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="D11">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E11">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F11">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3912,19 +3912,19 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="C13">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="D13">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F13">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3932,19 +3932,19 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D14">
+        <v>0.49</v>
+      </c>
+      <c r="E14">
         <v>0.51</v>
       </c>
-      <c r="E14">
-        <v>0.56000000000000005</v>
-      </c>
       <c r="F14">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3952,7 +3952,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C15">
         <v>0.01</v>
@@ -3961,10 +3961,10 @@
         <v>0.48</v>
       </c>
       <c r="E15">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="F15">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3972,19 +3972,19 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="C16">
-        <v>0.24</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D16">
         <v>0.57999999999999996</v>
       </c>
       <c r="E16">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="F16">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3997,19 +3997,19 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C18">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="D18">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E18">
         <v>0.02</v>
       </c>
       <c r="F18">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C19">
         <v>0.01</v>
@@ -4026,10 +4026,10 @@
         <v>0.01</v>
       </c>
       <c r="E19">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F19">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4046,7 +4046,7 @@
         <v>0.01</v>
       </c>
       <c r="E20">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F20">
         <v>0.01</v>
@@ -4057,7 +4057,7 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C21">
         <v>0.02</v>
@@ -4080,6 +4080,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>